--- a/FOC.xlsx
+++ b/FOC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\f-tahmasebi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fateme\Desktop\TelegramBotProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0630CA69-2E6B-4E1B-A7FB-C1D4DE62CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E1FDEC-87FA-467C-9B82-D4C6AA4F6520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -81,9 +82,6 @@
     <t>سلطان فروش نقدی -آبان 1404</t>
   </si>
   <si>
-    <t>نام تیبل اکسل</t>
-  </si>
-  <si>
     <t>KingCustomer</t>
   </si>
   <si>
@@ -145,6 +143,9 @@
   </si>
   <si>
     <t>کد پرسنلی را وارد کن</t>
+  </si>
+  <si>
+    <t>TableName</t>
   </si>
 </sst>
 </file>
@@ -622,18 +623,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -652,10 +653,10 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -663,10 +664,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -674,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -685,10 +686,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -696,10 +697,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -707,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -720,283 +721,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF085BA2-8834-4D3F-800E-CF4C5A7D7221}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="10"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="11"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="11"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="11"/>
     </row>
